--- a/builds/Design.xlsx
+++ b/builds/Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\CalendarAppWithC\builds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA65434-8B58-4CDA-BA8B-29447BD2A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BDDB29-30E5-4FA0-A563-A66876A94C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D63FEBDB-DF32-4D44-A6A7-78E52A9B9A0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="18">
   <si>
     <t>-</t>
   </si>
@@ -50,6 +50,36 @@
   <si>
     <t>+</t>
   </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
 </sst>
 </file>
 
@@ -64,14 +94,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,16 +161,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,28 +487,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0422F28-6689-401B-B8FA-63EBDEEA261B}">
-  <dimension ref="D3:CJ19"/>
+  <dimension ref="D1:CR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="2.7109375" style="4"/>
-    <col min="4" max="74" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="79" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="83" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="85" max="87" width="2.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="89" max="16384" width="2.7109375" style="4"/>
+    <col min="1" max="3" width="2.7109375" style="1"/>
+    <col min="4" max="96" width="4.7109375" style="1" customWidth="1"/>
+    <col min="97" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:88" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>9</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>16</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>3</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>4</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>7</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>8</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>9</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>10</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>11</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>12</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>13</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>14</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>15</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>16</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>17</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>18</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>19</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>20</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>21</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>22</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>23</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>24</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>25</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>26</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>27</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="4:96" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,25 +816,25 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>0</v>
@@ -565,15 +869,6 @@
       <c r="AF3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ3" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,28 +900,28 @@
         <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BB3" s="1" t="s">
         <v>0</v>
@@ -661,15 +956,6 @@
       <c r="BL3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="BM3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="BP3" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,550 +977,3026 @@
       <c r="BV3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="BW3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+    <row r="4" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5" t="s">
+      <c r="S4" s="2"/>
+      <c r="T4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5" t="s">
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5" t="s">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5" t="s">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5" t="s">
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5" t="s">
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5" t="s">
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5" t="s">
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5" t="s">
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5" t="s">
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5" t="s">
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5" t="s">
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5" t="s">
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5" t="s">
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="2" t="s">
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:88" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BM5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BQ5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BY5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CC5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="CG5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="3" t="s">
+    <row r="5" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
+    <row r="6" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="P6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="T6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="X6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AB6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="4"/>
+      <c r="AF6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AN6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP6" s="4"/>
+      <c r="AR6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT6" s="4"/>
+      <c r="AV6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX6" s="4"/>
+      <c r="AZ6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB6" s="4"/>
+      <c r="BD6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" s="4"/>
+      <c r="BH6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ6" s="4"/>
+      <c r="BL6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR6" s="4"/>
+      <c r="BT6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV6" s="4"/>
+      <c r="BX6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ6" s="4"/>
+      <c r="CB6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD6" s="4"/>
+      <c r="CF6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH6" s="4"/>
+      <c r="CJ6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL6" s="4"/>
+      <c r="CN6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP6" s="4"/>
+      <c r="CR6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ7" s="4" t="s">
+    <row r="7" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ8" s="4" t="s">
+    <row r="8" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="T8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="X8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AB8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="4"/>
+      <c r="AF8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AN8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP8" s="4"/>
+      <c r="AR8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT8" s="4"/>
+      <c r="AV8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX8" s="4"/>
+      <c r="AZ8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB8" s="4"/>
+      <c r="BD8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="4"/>
+      <c r="BH8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ8" s="4"/>
+      <c r="BL8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR8" s="4"/>
+      <c r="BT8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV8" s="4"/>
+      <c r="BX8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ8" s="4"/>
+      <c r="CB8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD8" s="4"/>
+      <c r="CF8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH8" s="4"/>
+      <c r="CJ8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL8" s="4"/>
+      <c r="CN8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP8" s="4"/>
+      <c r="CR8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ9" s="4" t="s">
+    <row r="9" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ10" s="4" t="s">
+    <row r="10" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="P10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="T10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="X10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AB10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="4"/>
+      <c r="AF10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AN10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="4"/>
+      <c r="AR10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="4"/>
+      <c r="AV10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX10" s="4"/>
+      <c r="AZ10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB10" s="4"/>
+      <c r="BD10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF10" s="4"/>
+      <c r="BH10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ10" s="4"/>
+      <c r="BL10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR10" s="4"/>
+      <c r="BT10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV10" s="4"/>
+      <c r="BX10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ10" s="4"/>
+      <c r="CB10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD10" s="4"/>
+      <c r="CF10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH10" s="4"/>
+      <c r="CJ10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL10" s="4"/>
+      <c r="CN10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP10" s="4"/>
+      <c r="CR10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ11" s="4" t="s">
+    <row r="11" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ12" s="4" t="s">
+    <row r="12" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="P12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="T12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="X12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AB12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="4"/>
+      <c r="AF12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AN12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP12" s="4"/>
+      <c r="AR12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT12" s="4"/>
+      <c r="AV12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX12" s="4"/>
+      <c r="AZ12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB12" s="4"/>
+      <c r="BD12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF12" s="4"/>
+      <c r="BH12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ12" s="4"/>
+      <c r="BL12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR12" s="4"/>
+      <c r="BT12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV12" s="4"/>
+      <c r="BX12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ12" s="4"/>
+      <c r="CB12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD12" s="4"/>
+      <c r="CF12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH12" s="4"/>
+      <c r="CJ12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL12" s="4"/>
+      <c r="CN12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP12" s="4"/>
+      <c r="CR12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ13" s="4" t="s">
+    <row r="13" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ14" s="4" t="s">
+    <row r="14" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="P14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="T14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="4"/>
+      <c r="X14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AB14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AF14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AN14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="4"/>
+      <c r="AR14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT14" s="4"/>
+      <c r="AV14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX14" s="4"/>
+      <c r="AZ14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB14" s="4"/>
+      <c r="BD14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="4"/>
+      <c r="BH14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ14" s="4"/>
+      <c r="BL14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR14" s="4"/>
+      <c r="BT14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV14" s="4"/>
+      <c r="BX14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ14" s="4"/>
+      <c r="CB14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD14" s="4"/>
+      <c r="CF14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH14" s="4"/>
+      <c r="CJ14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL14" s="4"/>
+      <c r="CN14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP14" s="4"/>
+      <c r="CR14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ15" s="4" t="s">
+    <row r="15" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ16" s="4" t="s">
+    <row r="16" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="P16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="T16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="4"/>
+      <c r="X16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="4"/>
+      <c r="AB16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="4"/>
+      <c r="AF16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AN16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="4"/>
+      <c r="AR16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT16" s="4"/>
+      <c r="AV16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX16" s="4"/>
+      <c r="AZ16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB16" s="4"/>
+      <c r="BD16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="4"/>
+      <c r="BH16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ16" s="4"/>
+      <c r="BL16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR16" s="4"/>
+      <c r="BT16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV16" s="4"/>
+      <c r="BX16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ16" s="4"/>
+      <c r="CB16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD16" s="4"/>
+      <c r="CF16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH16" s="4"/>
+      <c r="CJ16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL16" s="4"/>
+      <c r="CN16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP16" s="4"/>
+      <c r="CR16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ17" s="4" t="s">
+    <row r="17" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ18" s="4" t="s">
+    <row r="18" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="P18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="T18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="4"/>
+      <c r="X18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AB18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="4"/>
+      <c r="AF18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL18" s="4"/>
+      <c r="AN18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP18" s="4"/>
+      <c r="AR18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT18" s="4"/>
+      <c r="AV18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX18" s="4"/>
+      <c r="AZ18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB18" s="4"/>
+      <c r="BD18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="4"/>
+      <c r="BH18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ18" s="4"/>
+      <c r="BL18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR18" s="4"/>
+      <c r="BT18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV18" s="4"/>
+      <c r="BX18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ18" s="4"/>
+      <c r="CB18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD18" s="4"/>
+      <c r="CF18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH18" s="4"/>
+      <c r="CJ18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL18" s="4"/>
+      <c r="CN18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP18" s="4"/>
+      <c r="CR18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:88" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CJ19" s="4" t="s">
-        <v>1</v>
-      </c>
+    <row r="19" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:96" x14ac:dyDescent="0.25">
+      <c r="Q23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>